--- a/data-raw/Inital_CETSA_clusters.xlsx
+++ b/data-raw/Inital_CETSA_clusters.xlsx
@@ -46,9 +46,6 @@
     <t>Glutamate--cysteine ligase complex</t>
   </si>
   <si>
-    <t>Key protein in glutathione synthesis.</t>
-  </si>
-  <si>
     <t>GCLM, GCLC</t>
   </si>
   <si>
@@ -79,9 +76,6 @@
     <t>MT2A, MT1F, SLC30A1</t>
   </si>
   <si>
-    <t xml:space="preserve">Cu/Zn metabolism, </t>
-  </si>
-  <si>
     <t>Involved in Cu and Zn transport and chaparoning</t>
   </si>
   <si>
@@ -110,9 +104,6 @@
   </si>
   <si>
     <t>DCK</t>
-  </si>
-  <si>
-    <t>Trifunctional enzyme complex - lipid beta oxidation:</t>
   </si>
   <si>
     <t>Key step in  lipid beta oxidation</t>
@@ -168,9 +159,6 @@
     <t>Aifm1 apoptosis activation, DNA fragmentation</t>
   </si>
   <si>
-    <t>Aifm1 is release upon apoptosis to enter nucleuse where it acivates DNAses initating DNA fragmentation</t>
-  </si>
-  <si>
     <t>AIFM1</t>
   </si>
   <si>
@@ -180,9 +168,6 @@
     <t>CALCOCO2, MAP1LCRB2, GABARAPL2, SQSTM1 </t>
   </si>
   <si>
-    <t>PI3K pathway indcued autophagy</t>
-  </si>
-  <si>
     <t>RPA1,RPA2,RPA3</t>
   </si>
   <si>
@@ -195,9 +180,6 @@
     <t>Stability levels likely reflect efficency in generating autophagyzomes</t>
   </si>
   <si>
-    <t>Stabization likely reflects binding to DNA</t>
-  </si>
-  <si>
     <t>DNA-Damage signalling downstream of ATR</t>
   </si>
   <si>
@@ -219,15 +201,6 @@
     <t>JUNB, JUND, JUN </t>
   </si>
   <si>
-    <t>Could be phosphorylation and DEAR effect when entering nucelus</t>
-  </si>
-  <si>
-    <t>Transcription factors, offen in immune cell contexts</t>
-  </si>
-  <si>
-    <t>TNFa- NF-kB singalling</t>
-  </si>
-  <si>
     <t>NFKB1 NFKBIB TAX1BP</t>
   </si>
   <si>
@@ -255,9 +228,6 @@
     <t xml:space="preserve">Proteins modulated earley in M entry </t>
   </si>
   <si>
-    <t>late G2, M entry  - change en cell cycle distribution.</t>
-  </si>
-  <si>
     <t>Stability of MAPKAPK3 likely due to phosphorylation</t>
   </si>
   <si>
@@ -273,9 +243,6 @@
     <t>OAT, ODC1, HDC, SLC38A2</t>
   </si>
   <si>
-    <t>Suger matabolism downstream of PI3K</t>
-  </si>
-  <si>
     <t>Key steps in glucose - glycogen metabolism</t>
   </si>
   <si>
@@ -312,9 +279,6 @@
     <t>UTP4, UTP14, NOL11, WDR43, EMG1, TBL3</t>
   </si>
   <si>
-    <t>Chek2 signaling - dubble strand breaks</t>
-  </si>
-  <si>
     <t>Chek2 typcially signal downstream of ATM for ds-DNA damage</t>
   </si>
   <si>
@@ -333,24 +297,12 @@
     <t>Mitochondrial proteins in outer/innermebrane space</t>
   </si>
   <si>
-    <t>Mainely nuclear matrix localaised, can be induce by effector casapse attack</t>
-  </si>
-  <si>
-    <t>Flux and allosteric regulation. Stabilitet shifts of regulatory GCLM subunit might report on activation state.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Parp1 is cleaved and domains dicossiated. Stabilisation might be due to DNA binding of C-terminal domain </t>
   </si>
   <si>
     <t>Shifts reflects flux or binding of drug metabolites</t>
   </si>
   <si>
-    <t xml:space="preserve">Destabilisations can reflect release from DNA, eg to be replaced by repair polymerases to </t>
-  </si>
-  <si>
-    <t> Stabilisations and/or level increas reflect CDK activation. Stability shift both increase interactions and phosorylations</t>
-  </si>
-  <si>
     <t xml:space="preserve"> CDKN1A likely phosphorylated, CCND1 level changes likely proteasomally controlled</t>
   </si>
   <si>
@@ -363,12 +315,6 @@
     <t>Increased levels reflect activation of TLS</t>
   </si>
   <si>
-    <t>Translesion sythesis (TLS) signature</t>
-  </si>
-  <si>
-    <t>NFKBIB  degraded upon pathway activation. Stavilisaiont of NFKB1 due to activation by phosphorylation</t>
-  </si>
-  <si>
     <t>Stability change depending on calcium binding, known complexes shift together</t>
   </si>
   <si>
@@ -381,9 +327,6 @@
     <t>Activation of complexes in the context of rRNA produced by RNA Pol I</t>
   </si>
   <si>
-    <t>Decrease on multiple proteins reflect cellullar thymdiine level decrease</t>
-  </si>
-  <si>
     <t>PI3K pathway induced cell cycle arrest </t>
   </si>
   <si>
@@ -420,15 +363,9 @@
     <t>Key proteins in CDK regulation</t>
   </si>
   <si>
-    <t>Move ubiqutin  from E1 to E3 ligases</t>
-  </si>
-  <si>
     <t>RB1, key transcriptional regulator of G1-S entry</t>
   </si>
   <si>
-    <t xml:space="preserve">Chec1 signals ss-DNA damage, DNMT1 transfer DNA metylation </t>
-  </si>
-  <si>
     <t>CHEK1, DNMT1</t>
   </si>
   <si>
@@ -469,6 +406,69 @@
   </si>
   <si>
     <t>PARP1,  LMNB1, LMNB2, DDX21, BCAP31, MATR3</t>
+  </si>
+  <si>
+    <t>Key protein in glutathione synthesis</t>
+  </si>
+  <si>
+    <t>Move ubiqutin from E1 to E3 ligases</t>
+  </si>
+  <si>
+    <t>Aifm1 is release upon apoptosis to enter nucleus where it acivates DNAses initating DNA fragmentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chek1 signals ss-DNA damage, DNMT1 transfer DNA metylation </t>
+  </si>
+  <si>
+    <t>Transcription factors, often in immune cell contexts</t>
+  </si>
+  <si>
+    <t>Could be phosphorylation and DEAR effect when entering nucleus</t>
+  </si>
+  <si>
+    <t>Stabilization likely reflects binding to DNA</t>
+  </si>
+  <si>
+    <t>NFKBIB  degraded upon pathway activation. Stabilization of NFKB1 due to activation by phosphorylation</t>
+  </si>
+  <si>
+    <t> Stabilizations and/or level increase reflect CDK activation. Stability shift both increase interactions and phosorylations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Destabilizations can reflect release from DNA, eg to be replaced by repair polymerases to </t>
+  </si>
+  <si>
+    <t>Decrease on multiple proteins reflect cellullar thymidine level decrease</t>
+  </si>
+  <si>
+    <t>Mainly nuclear matrix localised, can be induce by effector casapse attack</t>
+  </si>
+  <si>
+    <t>Flux and allosteric regulation. Stability shifts of regulatory GCLM subunit might report on activation state.</t>
+  </si>
+  <si>
+    <t>Cu/Zn metabolism</t>
+  </si>
+  <si>
+    <t>Trifunctional enzyme complex - lipid beta oxidation</t>
+  </si>
+  <si>
+    <t>PI3K pathway induced autophagy</t>
+  </si>
+  <si>
+    <t>Translesion synthesis (TLS) signature</t>
+  </si>
+  <si>
+    <t>TNFa- NF-kB signalling</t>
+  </si>
+  <si>
+    <t>late G2, M entry  - change in cell cycle distribution.</t>
+  </si>
+  <si>
+    <t>Sugar matabolism downstream of PI3K</t>
+  </si>
+  <si>
+    <t>Chek2 signaling - double strand breaks</t>
   </si>
 </sst>
 </file>
@@ -850,8 +850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="158" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="158" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -882,486 +882,486 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>98</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="D4" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
       <c r="D6" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
         <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="D10" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="B14" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="B15" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="B16" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="C16" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="B17" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>46</v>
+        <v>137</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>51</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B21" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C21" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>59</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>61</v>
+        <v>139</v>
       </c>
       <c r="B25" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D25" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D27" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="D28" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>71</v>
+        <v>140</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="D29" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B30" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D30" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="B31" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="D31" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="B32" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="D32" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="B33" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D33" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="B34" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D34" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="D35" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="B36" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D36" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/Inital_CETSA_clusters.xlsx
+++ b/data-raw/Inital_CETSA_clusters.xlsx
@@ -64,9 +64,6 @@
     <t>Unique cleavage of Parp1 in early apotosis</t>
   </si>
   <si>
-    <t xml:space="preserve">PARP1 </t>
-  </si>
-  <si>
     <t>Might reflect structral modulation of mitochondrial outer mebrane</t>
   </si>
   <si>
@@ -112,8 +109,350 @@
     <t>Flux through pathway. Report on mitochondrial structure modulation </t>
   </si>
   <si>
+    <t>Opening of cell cycle checkpoints </t>
+  </si>
+  <si>
+    <t>CETSA defined Mtorc1 activation</t>
+  </si>
+  <si>
+    <t>Activates translation and other compoents downstream of PI3K/mTORC1</t>
+  </si>
+  <si>
+    <t>Foxk1 and Eif4e stability shifts reflect early activation</t>
+  </si>
+  <si>
+    <t>CDKN1A, CCND1</t>
+  </si>
+  <si>
+    <t>UBE2C UBE2T</t>
+  </si>
+  <si>
+    <t>RB1</t>
+  </si>
+  <si>
+    <t>Shifts could reflect phosphorylation and/or release from DNA and other proteins</t>
+  </si>
+  <si>
+    <t>Aifm1 apoptosis activation, DNA fragmentation</t>
+  </si>
+  <si>
+    <t>AIFM1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level shifts (DEAR effects)  could reflect release from mitochondria </t>
+  </si>
+  <si>
+    <t>RPA1,RPA2,RPA3</t>
+  </si>
+  <si>
+    <t>Binds ss-DNA to hub a DNA-damage response signaling complex</t>
+  </si>
+  <si>
+    <t>Proteins in the early generation of the autophagyzome</t>
+  </si>
+  <si>
+    <t>Stability levels likely reflect efficency in generating autophagyzomes</t>
+  </si>
+  <si>
+    <t>DNA-Damage signalling downstream of ATR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Destablisation of CHEK1 report on activation by phosphorylation </t>
+  </si>
+  <si>
+    <t>PCLAF, DTL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auxiliary DNA-repair ensemble </t>
+  </si>
+  <si>
+    <t>RRM2, TK1,  SLBP, GMNN, FBXO5</t>
+  </si>
+  <si>
+    <t>Support translesion synthesis</t>
+  </si>
+  <si>
+    <t>NFKB1 NFKBIB TAX1BP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCA cycle modulation </t>
+  </si>
+  <si>
+    <t>Enzymes in TCA cycle</t>
+  </si>
+  <si>
+    <t>CS, FH, IDH2, ALDH7A1, ACO2</t>
+  </si>
+  <si>
+    <t>Mainly flux through enzymes.  Often conserted stability changes</t>
+  </si>
+  <si>
+    <t>ER Ca2+ overload</t>
+  </si>
+  <si>
+    <t>Ca2+ binding (low affinity) folding complexes in ER</t>
+  </si>
+  <si>
+    <t>CALR,PDIA4, P4HB, PDIA3, P4HA1, RCN2, PDIA6, CANX, PPIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proteins modulated earley in M entry </t>
+  </si>
+  <si>
+    <t>Stability of MAPKAPK3 likely due to phosphorylation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mainly level changes </t>
+  </si>
+  <si>
+    <t>Proline synthesis </t>
+  </si>
+  <si>
+    <t>Enzymes en proline synthesis pathway</t>
+  </si>
+  <si>
+    <t>OAT, ODC1, HDC, SLC38A2</t>
+  </si>
+  <si>
+    <t>Key steps in glucose - glycogen metabolism</t>
+  </si>
+  <si>
+    <t>Likely due to activating phosphorylations</t>
+  </si>
+  <si>
+    <t>NurD complex</t>
+  </si>
+  <si>
+    <t>GATAD2B, GATAD2B, MTA2, MBD3, CHD4</t>
+  </si>
+  <si>
+    <t>Decreased level (DEAR effect?) stabilisation in DNA damage</t>
+  </si>
+  <si>
+    <t>rRNA processing complexes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> In ribosme biogensis downstream of RNA Pol 1</t>
+  </si>
+  <si>
+    <t>NOL7, NOL14, UTP14A, NOP14, NOP56, NOP58, FBL, DKC1, CIRH1A, RRP9</t>
+  </si>
+  <si>
+    <t>In ribosome biogensis</t>
+  </si>
+  <si>
+    <t>Increreased level (DEAR effect?) destabilisation - report on problems with ribosome biogensis</t>
+  </si>
+  <si>
+    <t>UTPA UTPB complexes, assembly of ribosome.</t>
+  </si>
+  <si>
+    <t>UTP4, UTP14, NOL11, WDR43, EMG1, TBL3</t>
+  </si>
+  <si>
+    <t>Chek2 typcially signal downstream of ATM for ds-DNA damage</t>
+  </si>
+  <si>
+    <t>CHEK2</t>
+  </si>
+  <si>
+    <t>Stabilisation report on activation by phosphorylation</t>
+  </si>
+  <si>
+    <t>Proteins inactivated by effector caspases 3, 5, 6 very early in apotosis</t>
+  </si>
+  <si>
+    <t>CETSA defined mitochondrial effects in apoptosis</t>
+  </si>
+  <si>
+    <t>Mitochondrial proteins in outer/innermebrane space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parp1 is cleaved and domains dicossiated. Stabilisation might be due to DNA binding of C-terminal domain </t>
+  </si>
+  <si>
+    <t>Shifts reflects flux or binding of drug metabolites</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CDKN1A likely phosphorylated, CCND1 level changes likely proteasomally controlled</t>
+  </si>
+  <si>
+    <t>Shifs could reflect both flux and changes in cellular GSH, GSSG concentrations</t>
+  </si>
+  <si>
+    <t>Primarely level changes. Rapid changes. Induced downstream of ATR</t>
+  </si>
+  <si>
+    <t>Increased levels reflect activation of TLS</t>
+  </si>
+  <si>
+    <t>Stability change depending on calcium binding, known complexes shift together</t>
+  </si>
+  <si>
+    <t>Likely flux through pathway</t>
+  </si>
+  <si>
+    <t>Could be due to reorganisation of nuclear matrix/membranes effecting several key nuclear complexes</t>
+  </si>
+  <si>
+    <t>Activation of complexes in the context of rRNA produced by RNA Pol I</t>
+  </si>
+  <si>
+    <t>PI3K pathway induced cell cycle arrest </t>
+  </si>
+  <si>
+    <t>PI3K controleld E2 ubiquitin-ligases</t>
+  </si>
+  <si>
+    <t>Glutathione-S-transferases</t>
+  </si>
+  <si>
+    <t>G1-S cell cycle checkpoint entry controlled by RB1</t>
+  </si>
+  <si>
+    <t>RPA based sensing of ss-DNA damage/stalled replication fork</t>
+  </si>
+  <si>
+    <t>AP-1/Jun transcription factor activation</t>
+  </si>
+  <si>
+    <t>MAPKAPK3 dependent mRNA decay seen dowsntream of TNFa</t>
+  </si>
+  <si>
+    <t>CESTA derived Core Apoptosis Ensamble (CCAE)</t>
+  </si>
+  <si>
+    <t>Parp1 early inactivation in apoptosis</t>
+  </si>
+  <si>
+    <t>Proteins catalysing rections where thymidine based nucleotides are substrates and products</t>
+  </si>
+  <si>
+    <t>CDK complex activation for direct transitions in G1/S and G2/M </t>
+  </si>
+  <si>
+    <t>Key proteins in CDK regulation</t>
+  </si>
+  <si>
+    <t>RB1, key transcriptional regulator of G1-S entry</t>
+  </si>
+  <si>
+    <t>CHEK1, DNMT1</t>
+  </si>
+  <si>
+    <t>Induced upon DNA-damage, ensemble contain proteins supporting DNA repair</t>
+  </si>
+  <si>
+    <t>Key proteins in TNFa and NF-kB singalling</t>
+  </si>
+  <si>
+    <t>Destabilise some ARE dependent mRNAs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mainly nuclear modulations induced in apoptosis </t>
+  </si>
+  <si>
+    <t>Chromatin remodeling, ATPase activity, also in context of DNA damage</t>
+  </si>
+  <si>
+    <t>MAPKAPK3, ZFP36L1</t>
+  </si>
+  <si>
+    <t>HMMR, CKAP2, KIF4A, SGOL2, NUSAP1, CCNB1, TPX2</t>
+  </si>
+  <si>
+    <t>ADNP AIFM1 BCAP31 BCLAF1 CBX1 CBX5 CDC5L CHCHD3 CHD4 CNOT2 DDX18 DDX21 ESF1 FTSJ3 GABPB1 GNL2 HNRNPA0 HNRNPA3 HNRNPC HNRNPU IMMT LMNA LMNB1 LMNB2 LUC7L3 MATR3-2 MORC3 NCL NOP14 PARP1 PPM1G PRKDC RBM5 RBMX RRP1 RSF1 SMARCC1 TFAM TOP U2SURP UBR7 UBTF WDHD1 XRCC5 XRCC6 ZC3H13 ZMYND8</t>
+  </si>
+  <si>
+    <t>GSTs conjugate glutathione to substrates including during detoxification of drugs</t>
+  </si>
+  <si>
+    <t>Key protein in glutathione synthesis</t>
+  </si>
+  <si>
+    <t>Move ubiqutin from E1 to E3 ligases</t>
+  </si>
+  <si>
+    <t>Aifm1 is release upon apoptosis to enter nucleus where it acivates DNAses initating DNA fragmentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chek1 signals ss-DNA damage, DNMT1 transfer DNA metylation </t>
+  </si>
+  <si>
+    <t>Transcription factors, often in immune cell contexts</t>
+  </si>
+  <si>
+    <t>Could be phosphorylation and DEAR effect when entering nucleus</t>
+  </si>
+  <si>
+    <t>Stabilization likely reflects binding to DNA</t>
+  </si>
+  <si>
+    <t>NFKBIB  degraded upon pathway activation. Stabilization of NFKB1 due to activation by phosphorylation</t>
+  </si>
+  <si>
+    <t> Stabilizations and/or level increase reflect CDK activation. Stability shift both increase interactions and phosorylations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Destabilizations can reflect release from DNA, eg to be replaced by repair polymerases to </t>
+  </si>
+  <si>
+    <t>Decrease on multiple proteins reflect cellullar thymidine level decrease</t>
+  </si>
+  <si>
+    <t>Mainly nuclear matrix localised, can be induce by effector casapse attack</t>
+  </si>
+  <si>
+    <t>Flux and allosteric regulation. Stability shifts of regulatory GCLM subunit might report on activation state.</t>
+  </si>
+  <si>
+    <t>Cu/Zn metabolism</t>
+  </si>
+  <si>
+    <t>Trifunctional enzyme complex - lipid beta oxidation</t>
+  </si>
+  <si>
+    <t>PI3K pathway induced autophagy</t>
+  </si>
+  <si>
+    <t>Translesion synthesis (TLS) signature</t>
+  </si>
+  <si>
+    <t>TNFa- NF-kB signalling</t>
+  </si>
+  <si>
+    <t>late G2, M entry  - change in cell cycle distribution.</t>
+  </si>
+  <si>
+    <t>Sugar matabolism downstream of PI3K</t>
+  </si>
+  <si>
+    <t>Chek2 signaling - double strand breaks</t>
+  </si>
+  <si>
+    <t>PARP1</t>
+  </si>
+  <si>
+    <t>CCNA2, CCNB1, CCNB2, CDK1</t>
+  </si>
+  <si>
+    <t>FOXK1, EIF4E, PDCD4</t>
+  </si>
+  <si>
+    <t>GSTP1, GSTM3, GSTM2, GST1</t>
+  </si>
+  <si>
+    <t>CALCOCO2, MAP1LCRB2, GABARAPL2, SQSTM1</t>
+  </si>
+  <si>
+    <t>JUNB, JUND, JUN</t>
+  </si>
+  <si>
+    <t>GYG1, HK</t>
+  </si>
+  <si>
     <r>
-      <t>HADHA, </t>
+      <t xml:space="preserve">HADHA, </t>
     </r>
     <r>
       <rPr>
@@ -126,349 +465,10 @@
     </r>
   </si>
   <si>
-    <t>Opening of cell cycle checkpoints </t>
-  </si>
-  <si>
-    <t>CCNA2, CCNB1, CCNB2, CDK1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FOXK1, EIF4E, PDCD4 </t>
-  </si>
-  <si>
-    <t>CETSA defined Mtorc1 activation</t>
-  </si>
-  <si>
-    <t>Activates translation and other compoents downstream of PI3K/mTORC1</t>
-  </si>
-  <si>
-    <t>Foxk1 and Eif4e stability shifts reflect early activation</t>
-  </si>
-  <si>
-    <t>CDKN1A, CCND1</t>
-  </si>
-  <si>
-    <t>UBE2C UBE2T</t>
-  </si>
-  <si>
-    <t>RB1</t>
-  </si>
-  <si>
-    <t>Shifts could reflect phosphorylation and/or release from DNA and other proteins</t>
-  </si>
-  <si>
-    <t>Aifm1 apoptosis activation, DNA fragmentation</t>
-  </si>
-  <si>
-    <t>AIFM1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Level shifts (DEAR effects)  could reflect release from mitochondria </t>
-  </si>
-  <si>
-    <t>CALCOCO2, MAP1LCRB2, GABARAPL2, SQSTM1 </t>
-  </si>
-  <si>
-    <t>RPA1,RPA2,RPA3</t>
-  </si>
-  <si>
-    <t>Binds ss-DNA to hub a DNA-damage response signaling complex</t>
-  </si>
-  <si>
-    <t>Proteins in the early generation of the autophagyzome</t>
-  </si>
-  <si>
-    <t>Stability levels likely reflect efficency in generating autophagyzomes</t>
-  </si>
-  <si>
-    <t>DNA-Damage signalling downstream of ATR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Destablisation of CHEK1 report on activation by phosphorylation </t>
-  </si>
-  <si>
-    <t>PCLAF, DTL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auxiliary DNA-repair ensemble </t>
-  </si>
-  <si>
-    <t>RRM2, TK1,  SLBP, GMNN, FBXO5</t>
-  </si>
-  <si>
-    <t>Support translesion synthesis</t>
-  </si>
-  <si>
-    <t>JUNB, JUND, JUN </t>
-  </si>
-  <si>
-    <t>NFKB1 NFKBIB TAX1BP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCA cycle modulation </t>
-  </si>
-  <si>
-    <t>Enzymes in TCA cycle</t>
-  </si>
-  <si>
-    <t>CS, FH, IDH2, ALDH7A1, ACO2</t>
-  </si>
-  <si>
-    <t>Mainly flux through enzymes.  Often conserted stability changes</t>
-  </si>
-  <si>
-    <t>ER Ca2+ overload</t>
-  </si>
-  <si>
-    <t>Ca2+ binding (low affinity) folding complexes in ER</t>
-  </si>
-  <si>
-    <t>CALR,PDIA4, P4HB, PDIA3, P4HA1, RCN2, PDIA6, CANX, PPIB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proteins modulated earley in M entry </t>
-  </si>
-  <si>
-    <t>Stability of MAPKAPK3 likely due to phosphorylation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mainly level changes </t>
-  </si>
-  <si>
-    <t>Proline synthesis </t>
-  </si>
-  <si>
-    <t>Enzymes en proline synthesis pathway</t>
-  </si>
-  <si>
-    <t>OAT, ODC1, HDC, SLC38A2</t>
-  </si>
-  <si>
-    <t>Key steps in glucose - glycogen metabolism</t>
-  </si>
-  <si>
-    <t>Likely due to activating phosphorylations</t>
-  </si>
-  <si>
-    <t>NurD complex</t>
-  </si>
-  <si>
-    <t>GATAD2B, GATAD2B, MTA2, MBD3, CHD4</t>
-  </si>
-  <si>
-    <t>Decreased level (DEAR effect?) stabilisation in DNA damage</t>
-  </si>
-  <si>
-    <t>rRNA processing complexes</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> In ribosme biogensis downstream of RNA Pol 1</t>
-  </si>
-  <si>
-    <t>NOL7, NOL14, UTP14A, NOP14, NOP56, NOP58, FBL, DKC1, CIRH1A, RRP9</t>
-  </si>
-  <si>
-    <t>In ribosome biogensis</t>
-  </si>
-  <si>
-    <t>Increreased level (DEAR effect?) destabilisation - report on problems with ribosome biogensis</t>
-  </si>
-  <si>
-    <t>UTPA UTPB complexes, assembly of ribosome.</t>
-  </si>
-  <si>
-    <t>UTP4, UTP14, NOL11, WDR43, EMG1, TBL3</t>
-  </si>
-  <si>
-    <t>Chek2 typcially signal downstream of ATM for ds-DNA damage</t>
-  </si>
-  <si>
-    <t>CHEK2</t>
-  </si>
-  <si>
-    <t>Stabilisation report on activation by phosphorylation</t>
-  </si>
-  <si>
-    <t>Proteins inactivated by effector caspases 3, 5, 6 very early in apotosis</t>
-  </si>
-  <si>
-    <t>CETSA defined mitochondrial effects in apoptosis</t>
-  </si>
-  <si>
-    <t>Mitochondrial proteins in outer/innermebrane space</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parp1 is cleaved and domains dicossiated. Stabilisation might be due to DNA binding of C-terminal domain </t>
-  </si>
-  <si>
-    <t>Shifts reflects flux or binding of drug metabolites</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CDKN1A likely phosphorylated, CCND1 level changes likely proteasomally controlled</t>
-  </si>
-  <si>
-    <t>Shifs could reflect both flux and changes in cellular GSH, GSSG concentrations</t>
-  </si>
-  <si>
-    <t>Primarely level changes. Rapid changes. Induced downstream of ATR</t>
-  </si>
-  <si>
-    <t>Increased levels reflect activation of TLS</t>
-  </si>
-  <si>
-    <t>Stability change depending on calcium binding, known complexes shift together</t>
-  </si>
-  <si>
-    <t>Likely flux through pathway</t>
-  </si>
-  <si>
-    <t>Could be due to reorganisation of nuclear matrix/membranes effecting several key nuclear complexes</t>
-  </si>
-  <si>
-    <t>Activation of complexes in the context of rRNA produced by RNA Pol I</t>
-  </si>
-  <si>
-    <t>PI3K pathway induced cell cycle arrest </t>
-  </si>
-  <si>
-    <t>PI3K controleld E2 ubiquitin-ligases</t>
-  </si>
-  <si>
-    <t>Glutathione-S-transferases</t>
-  </si>
-  <si>
-    <t>G1-S cell cycle checkpoint entry controlled by RB1</t>
-  </si>
-  <si>
-    <t>RPA based sensing of ss-DNA damage/stalled replication fork</t>
-  </si>
-  <si>
-    <t>AP-1/Jun transcription factor activation</t>
-  </si>
-  <si>
-    <t>MAPKAPK3 dependent mRNA decay seen dowsntream of TNFa</t>
-  </si>
-  <si>
-    <t>CESTA derived Core Apoptosis Ensamble (CCAE)</t>
-  </si>
-  <si>
-    <t>Parp1 early inactivation in apoptosis</t>
-  </si>
-  <si>
-    <t>Proteins catalysing rections where thymidine based nucleotides are substrates and products</t>
-  </si>
-  <si>
-    <t>CDK complex activation for direct transitions in G1/S and G2/M </t>
-  </si>
-  <si>
-    <t>Key proteins in CDK regulation</t>
-  </si>
-  <si>
-    <t>RB1, key transcriptional regulator of G1-S entry</t>
-  </si>
-  <si>
-    <t>CHEK1, DNMT1</t>
-  </si>
-  <si>
-    <t>Induced upon DNA-damage, ensemble contain proteins supporting DNA repair</t>
-  </si>
-  <si>
-    <t>Key proteins in TNFa and NF-kB singalling</t>
-  </si>
-  <si>
-    <t>Destabilise some ARE dependent mRNAs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mainly nuclear modulations induced in apoptosis </t>
-  </si>
-  <si>
-    <t>Chromatin remodeling, ATPase activity, also in context of DNA damage</t>
-  </si>
-  <si>
-    <t>MAPKAPK3, ZFP36L1</t>
-  </si>
-  <si>
-    <t>HMMR, CKAP2, KIF4A, SGOL2, NUSAP1, CCNB1, TPX2</t>
-  </si>
-  <si>
-    <t>GYG1, HK </t>
-  </si>
-  <si>
-    <t>ADNP AIFM1 BCAP31 BCLAF1 CBX1 CBX5 CDC5L CHCHD3 CHD4 CNOT2 DDX18 DDX21 ESF1 FTSJ3 GABPB1 GNL2 HNRNPA0 HNRNPA3 HNRNPC HNRNPU IMMT LMNA LMNB1 LMNB2 LUC7L3 MATR3-2 MORC3 NCL NOP14 PARP1 PPM1G PRKDC RBM5 RBMX RRP1 RSF1 SMARCC1 TFAM TOP U2SURP UBR7 UBTF WDHD1 XRCC5 XRCC6 ZC3H13 ZMYND8</t>
-  </si>
-  <si>
-    <t>GSTs conjugate glutathione to substrates including during detoxification of drugs</t>
-  </si>
-  <si>
-    <t>GSTP1, GSTM3, GSTM2 GST1</t>
-  </si>
-  <si>
-    <t>PARP1,  LMNB1, LMNB2, DDX21, PRKDC, MATR3, U2SURP, ZMYND8</t>
-  </si>
-  <si>
-    <t>PARP1,  LMNB1, LMNB2, DDX21, BCAP31, MATR3</t>
-  </si>
-  <si>
-    <t>Key protein in glutathione synthesis</t>
-  </si>
-  <si>
-    <t>Move ubiqutin from E1 to E3 ligases</t>
-  </si>
-  <si>
-    <t>Aifm1 is release upon apoptosis to enter nucleus where it acivates DNAses initating DNA fragmentation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chek1 signals ss-DNA damage, DNMT1 transfer DNA metylation </t>
-  </si>
-  <si>
-    <t>Transcription factors, often in immune cell contexts</t>
-  </si>
-  <si>
-    <t>Could be phosphorylation and DEAR effect when entering nucleus</t>
-  </si>
-  <si>
-    <t>Stabilization likely reflects binding to DNA</t>
-  </si>
-  <si>
-    <t>NFKBIB  degraded upon pathway activation. Stabilization of NFKB1 due to activation by phosphorylation</t>
-  </si>
-  <si>
-    <t> Stabilizations and/or level increase reflect CDK activation. Stability shift both increase interactions and phosorylations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Destabilizations can reflect release from DNA, eg to be replaced by repair polymerases to </t>
-  </si>
-  <si>
-    <t>Decrease on multiple proteins reflect cellullar thymidine level decrease</t>
-  </si>
-  <si>
-    <t>Mainly nuclear matrix localised, can be induce by effector casapse attack</t>
-  </si>
-  <si>
-    <t>Flux and allosteric regulation. Stability shifts of regulatory GCLM subunit might report on activation state.</t>
-  </si>
-  <si>
-    <t>Cu/Zn metabolism</t>
-  </si>
-  <si>
-    <t>Trifunctional enzyme complex - lipid beta oxidation</t>
-  </si>
-  <si>
-    <t>PI3K pathway induced autophagy</t>
-  </si>
-  <si>
-    <t>Translesion synthesis (TLS) signature</t>
-  </si>
-  <si>
-    <t>TNFa- NF-kB signalling</t>
-  </si>
-  <si>
-    <t>late G2, M entry  - change in cell cycle distribution.</t>
-  </si>
-  <si>
-    <t>Sugar matabolism downstream of PI3K</t>
-  </si>
-  <si>
-    <t>Chek2 signaling - double strand breaks</t>
+    <t>PARP1, LMNB1, LMNB2, DDX21, PRKDC, MATR3, U2SURP, ZMYND8</t>
+  </si>
+  <si>
+    <t>PARP1, LMNB1, LMNB2, DDX21, BCAP31, MATR3</t>
   </si>
 </sst>
 </file>
@@ -850,8 +850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="158" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="158" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -882,13 +882,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -896,10 +896,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
@@ -913,24 +913,24 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="D4" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -938,430 +938,430 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>133</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
         <v>15</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="D8" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="D10" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>29</v>
+        <v>134</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B14" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B15" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B16" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C16" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B17" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="D19" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C21" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B22" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B24" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>52</v>
+        <v>138</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B25" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D25" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D27" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D28" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D29" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D30" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="D31" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B32" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D32" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B33" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D33" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D34" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D35" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B36" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D36" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/Inital_CETSA_clusters.xlsx
+++ b/data-raw/Inital_CETSA_clusters.xlsx
@@ -82,9 +82,6 @@
     <t>Thymidine metabolite levels</t>
   </si>
   <si>
-    <t>RRM1, TYMS, TK1, SAMHD1, TYMK</t>
-  </si>
-  <si>
     <t>Deoxycytidine kinase</t>
   </si>
   <si>
@@ -172,9 +169,6 @@
     <t>Support translesion synthesis</t>
   </si>
   <si>
-    <t>NFKB1 NFKBIB TAX1BP</t>
-  </si>
-  <si>
     <t xml:space="preserve">TCA cycle modulation </t>
   </si>
   <si>
@@ -235,9 +229,6 @@
     <t xml:space="preserve"> In ribosme biogensis downstream of RNA Pol 1</t>
   </si>
   <si>
-    <t>NOL7, NOL14, UTP14A, NOP14, NOP56, NOP58, FBL, DKC1, CIRH1A, RRP9</t>
-  </si>
-  <si>
     <t>In ribosome biogensis</t>
   </si>
   <si>
@@ -247,9 +238,6 @@
     <t>UTPA UTPB complexes, assembly of ribosome.</t>
   </si>
   <si>
-    <t>UTP4, UTP14, NOL11, WDR43, EMG1, TBL3</t>
-  </si>
-  <si>
     <t>Chek2 typcially signal downstream of ATM for ds-DNA damage</t>
   </si>
   <si>
@@ -358,12 +346,6 @@
     <t>MAPKAPK3, ZFP36L1</t>
   </si>
   <si>
-    <t>HMMR, CKAP2, KIF4A, SGOL2, NUSAP1, CCNB1, TPX2</t>
-  </si>
-  <si>
-    <t>ADNP AIFM1 BCAP31 BCLAF1 CBX1 CBX5 CDC5L CHCHD3 CHD4 CNOT2 DDX18 DDX21 ESF1 FTSJ3 GABPB1 GNL2 HNRNPA0 HNRNPA3 HNRNPC HNRNPU IMMT LMNA LMNB1 LMNB2 LUC7L3 MATR3-2 MORC3 NCL NOP14 PARP1 PPM1G PRKDC RBM5 RBMX RRP1 RSF1 SMARCC1 TFAM TOP U2SURP UBR7 UBTF WDHD1 XRCC5 XRCC6 ZC3H13 ZMYND8</t>
-  </si>
-  <si>
     <t>GSTs conjugate glutathione to substrates including during detoxification of drugs</t>
   </si>
   <si>
@@ -439,16 +421,7 @@
     <t>FOXK1, EIF4E, PDCD4</t>
   </si>
   <si>
-    <t>GSTP1, GSTM3, GSTM2, GST1</t>
-  </si>
-  <si>
-    <t>CALCOCO2, MAP1LCRB2, GABARAPL2, SQSTM1</t>
-  </si>
-  <si>
     <t>JUNB, JUND, JUN</t>
-  </si>
-  <si>
-    <t>GYG1, HK</t>
   </si>
   <si>
     <r>
@@ -469,6 +442,33 @@
   </si>
   <si>
     <t>PARP1, LMNB1, LMNB2, DDX21, BCAP31, MATR3</t>
+  </si>
+  <si>
+    <t>NOL7, NOP14, UTP14A, NOP14, NOP56, NOP58, FBL, DKC1, UTP4, RRP9</t>
+  </si>
+  <si>
+    <t>GSTP1, GSTM3, GSTM2, GSTK1</t>
+  </si>
+  <si>
+    <t>GYG1, HK2</t>
+  </si>
+  <si>
+    <t>CALCOCO2, MAP1LC3B2, GABARAPL2, SQSTM1</t>
+  </si>
+  <si>
+    <t>HMMR, CKAP2, KIF4A, SGO2, NUSAP1, CCNB1, TPX2</t>
+  </si>
+  <si>
+    <t>NFKB1 NFKBIB TAX1BP1</t>
+  </si>
+  <si>
+    <t>ADNP AIFM1 BCAP31 BCLAF1 CBX1 CBX5 CDC5L CHCHD3 CHD4 CNOT2 DDX18 DDX21 ESF1 FTSJ3 GABPB1 GNL2 HNRNPA0 HNRNPA3 HNRNPC HNRNPU IMMT LMNA LMNB1 LMNB2 LUC7L3 MATR3 MORC3 NCL NOP14 PARP1 PPM1G PRKDC RBM5 RBMX RRP1 RSF1 SMARCC1 TFAM TOP1 U2SURP UBR7 UBTF WDHD1 XRCC5 XRCC6 ZC3H13 ZMYND8</t>
+  </si>
+  <si>
+    <t>RRM1, TYMS, TK1, SAMHD1, DTYMK</t>
+  </si>
+  <si>
+    <t>UTP4, UTP14A, NOL11, WDR43, EMG1, TBL3</t>
   </si>
 </sst>
 </file>
@@ -840,7 +840,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -850,8 +850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="158" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="C23" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -882,13 +882,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -896,10 +896,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
@@ -913,18 +913,18 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -938,18 +938,18 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
@@ -966,402 +966,402 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>141</v>
       </c>
       <c r="D8" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D10" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
         <v>27</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B15" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B16" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B17" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B18" t="s">
-        <v>114</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>137</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B21" t="s">
-        <v>115</v>
-      </c>
-      <c r="C21" t="s">
-        <v>102</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" t="s">
         <v>44</v>
       </c>
-      <c r="B22" t="s">
-        <v>103</v>
-      </c>
-      <c r="C22" t="s">
-        <v>45</v>
-      </c>
       <c r="D22" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B24" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>47</v>
+        <v>139</v>
       </c>
       <c r="D25" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B26" t="s">
+      <c r="D26" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="D27" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D29" t="s">
         <v>55</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D29" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B30" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="D30" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B32" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D32" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" t="s">
         <v>63</v>
-      </c>
-      <c r="B33" t="s">
-        <v>107</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D33" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>68</v>
+        <v>134</v>
       </c>
       <c r="D34" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>72</v>
+        <v>142</v>
       </c>
       <c r="D35" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D36" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/Inital_CETSA_clusters.xlsx
+++ b/data-raw/Inital_CETSA_clusters.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="146">
   <si>
     <t>Name of cluster</t>
   </si>
@@ -469,6 +469,15 @@
   </si>
   <si>
     <t>UTP4, UTP14A, NOL11, WDR43, EMG1, TBL3</t>
+  </si>
+  <si>
+    <t>Mitochondrial Kreb cycle</t>
+  </si>
+  <si>
+    <t>Key enzymes of Kreb cycle</t>
+  </si>
+  <si>
+    <t>Effect on flux through the Kreb cycle</t>
   </si>
 </sst>
 </file>
@@ -840,7 +849,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -848,10 +857,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C23" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -1364,6 +1373,20 @@
         <v>71</v>
       </c>
     </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
